--- a/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="住宿" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="设备" sheetId="5" r:id="rId4"/>
     <sheet name="补票" sheetId="4" r:id="rId5"/>
     <sheet name="汇总" sheetId="6" r:id="rId6"/>
+    <sheet name="汇总2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,55 +298,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新购设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋进南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老友南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜居南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未付款 (预计)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐成租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴票交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>交通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新购设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我爱南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奋进南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老友南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美丽南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宜居南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未付款 (预计)</t>
+    <t>已交补票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,16 +895,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -829,79 +918,88 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:30">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>1874</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:W2" si="0">SUM(B3:B30)</f>
+        <f t="shared" ref="B2:Z2" si="0">SUM(B3:B30)</f>
         <v>3161</v>
       </c>
       <c r="C2">
@@ -913,91 +1011,103 @@
         <v>1068</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2" si="1">SUM(E3:E30)</f>
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2" si="1">SUM(F3:F30)</f>
         <v>100</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2" si="2">SUM(F3:F30)</f>
+      <c r="G2">
+        <f t="shared" ref="G2" si="2">SUM(G3:G30)</f>
         <v>798</v>
       </c>
-      <c r="G2">
+      <c r="H2">
+        <f>SUM(H3:H50)</f>
+        <v>1872</v>
+      </c>
+      <c r="I2">
         <f t="shared" si="0"/>
         <v>1886.5</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <f t="shared" si="0"/>
         <v>806.86</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <f t="shared" si="0"/>
         <v>909</v>
-      </c>
-      <c r="J2">
-        <f>SUM(J3:J30)</f>
-        <v>531.76</v>
-      </c>
-      <c r="K2">
-        <f>SUM(K3:K30)</f>
-        <v>122</v>
       </c>
       <c r="L2">
         <f>SUM(L3:L30)</f>
-        <v>1095</v>
+        <v>531.76</v>
       </c>
       <c r="M2">
         <f>SUM(M3:M30)</f>
+        <v>122</v>
+      </c>
+      <c r="N2">
+        <f>SUM(N3:N30)</f>
+        <v>1095</v>
+      </c>
+      <c r="O2">
+        <f>SUM(O3:O30)</f>
         <v>308</v>
       </c>
-      <c r="N2">
-        <f t="shared" ref="N2" si="3">SUM(N3:N30)</f>
+      <c r="P2">
+        <f>SUM(P3:P50)</f>
+        <v>1110</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="3">SUM(Q3:Q30)</f>
         <v>846</v>
       </c>
-      <c r="O2">
-        <f t="shared" ref="O2" si="4">SUM(O3:O30)</f>
+      <c r="R2">
+        <f t="shared" ref="R2" si="4">SUM(R3:R30)</f>
         <v>1967</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2" si="5">SUM(P3:P30)</f>
+      <c r="S2">
+        <f t="shared" ref="S2" si="5">SUM(S3:S30)</f>
         <v>755</v>
       </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2" si="6">SUM(Q3:Q30)</f>
+      <c r="T2">
+        <f t="shared" ref="T2" si="6">SUM(T3:T30)</f>
         <v>150</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2" si="7">SUM(R3:R30)</f>
+      <c r="U2">
+        <f t="shared" ref="U2" si="7">SUM(U3:U30)</f>
         <v>292</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2" si="8">SUM(S3:S30)</f>
+      <c r="V2">
+        <f t="shared" ref="V2" si="8">SUM(V3:V30)</f>
         <v>490</v>
       </c>
-      <c r="T2">
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>2088.6</v>
       </c>
-      <c r="U2">
+      <c r="X2">
         <f t="shared" si="0"/>
         <v>708</v>
       </c>
-      <c r="V2">
+      <c r="Y2">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2" si="9">SUM(X3:X30)</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2" si="9">SUM(AA3:AA30)</f>
         <v>1844</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2" si="10">SUM(Y3:Y30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2">
+        <f t="shared" ref="AB2" si="10">SUM(AB3:AB30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>416</v>
       </c>
@@ -1011,74 +1121,83 @@
         <v>269</v>
       </c>
       <c r="E3">
+        <v>223</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>247</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>426</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>46</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>250</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>116</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>122</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>360</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>308</v>
       </c>
-      <c r="N3">
+      <c r="P3">
+        <v>20</v>
+      </c>
+      <c r="Q3">
         <v>50</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>222</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>500</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>39</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>74</v>
       </c>
-      <c r="T3">
+      <c r="W3">
         <v>316</v>
       </c>
-      <c r="U3">
+      <c r="X3">
         <v>192</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>540</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>100</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>470</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <f>SUM(A2:C2)</f>
         <v>6409</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1092,65 +1211,74 @@
         <v>147</v>
       </c>
       <c r="E4">
+        <v>184</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>56</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
         <v>386</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>166.86</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>273</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>159</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>51</v>
       </c>
-      <c r="N4">
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
         <v>190</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>140</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>250</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>50</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>87</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>27</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <v>30</v>
       </c>
-      <c r="U4">
+      <c r="X4">
         <v>516</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>90</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>329</v>
       </c>
-      <c r="Z4">
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="AA4">
-        <f>SUM(D2)</f>
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AD4">
+        <f>SUM(D2:E2)</f>
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>313</v>
       </c>
@@ -1164,56 +1292,65 @@
         <v>189</v>
       </c>
       <c r="E5">
+        <v>151</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>247</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
         <v>173</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>289</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>245</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>94.76</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>222</v>
       </c>
-      <c r="N5">
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <v>260</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>308</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>5</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>36</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>98</v>
       </c>
-      <c r="T5">
+      <c r="W5">
         <v>74.599999999999994</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>161</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>2</v>
       </c>
-      <c r="AA5">
-        <f>SUM(E2:F2)</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AD5">
+        <f>SUM(F2:H2)</f>
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>324</v>
       </c>
@@ -1224,53 +1361,62 @@
         <v>168</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>248</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>116</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>250</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>141</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>162</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>298</v>
       </c>
-      <c r="N6">
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
         <v>331</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>360</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>49</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>27</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <v>221</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>243</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>3</v>
       </c>
-      <c r="AA6">
-        <f>SUM(G2:M2)</f>
-        <v>5659.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AD6">
+        <f>SUM(I2:P2)</f>
+        <v>6769.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>216</v>
       </c>
@@ -1281,162 +1427,376 @@
         <v>295</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
         <v>134</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>55</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>49</v>
       </c>
-      <c r="N7">
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>396</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>47</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>87</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>170</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>151</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <v>4</v>
       </c>
-      <c r="AA7">
-        <f>SUM(N2:S2)</f>
+      <c r="AD7">
+        <f>SUM(Q2:V2)</f>
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>305</v>
       </c>
       <c r="B8">
         <v>320</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>48</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>115</v>
       </c>
-      <c r="O8">
+      <c r="P8">
+        <v>100</v>
+      </c>
+      <c r="R8">
         <v>258</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>34</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>85</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>106</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>271</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>5</v>
       </c>
-      <c r="AA8">
-        <f>SUM(T2:W2)</f>
+      <c r="AD8">
+        <f>SUM(W2:Z2)</f>
         <v>3526.6</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:30">
       <c r="B9">
         <v>171</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>37.5</v>
       </c>
-      <c r="O9">
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="R9">
         <v>283</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>92</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>272</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>219</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>6</v>
       </c>
-      <c r="AA9">
-        <f>SUM(X2)</f>
+      <c r="AD9">
+        <f>SUM(AA2)</f>
         <v>1844</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:30">
       <c r="B10">
         <v>239</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <v>234</v>
       </c>
-      <c r="T10">
+      <c r="P10">
+        <v>100</v>
+      </c>
+      <c r="W10">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:30">
       <c r="B11">
         <v>379</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
         <v>332</v>
       </c>
-      <c r="T11">
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="W11">
         <v>184</v>
       </c>
-      <c r="AA11">
-        <f>SUM(AA3:AA9)</f>
-        <v>23904.719999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AD11">
+        <f>SUM(AD3:AD9)</f>
+        <v>27644.719999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="B12">
         <v>35</v>
       </c>
-      <c r="T12">
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>20</v>
+      </c>
+      <c r="W12">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:30">
       <c r="B13">
         <v>377</v>
       </c>
-      <c r="T13">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>20</v>
+      </c>
+      <c r="W13">
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:30">
       <c r="B14">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="B15">
         <v>502</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16">
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16">
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16">
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16">
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16">
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="8:16">
+      <c r="H22">
+        <v>250</v>
+      </c>
+      <c r="P22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16">
+      <c r="H23">
+        <v>89</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="8:16">
+      <c r="H24">
+        <v>290</v>
+      </c>
+      <c r="P24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="8:16">
+      <c r="H25">
+        <v>283</v>
+      </c>
+      <c r="P25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="8:16">
+      <c r="H26">
+        <v>174</v>
+      </c>
+      <c r="P26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="8:16">
+      <c r="H27">
+        <v>230</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="8:16">
+      <c r="H28">
+        <v>153</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16">
+      <c r="H29">
+        <v>213</v>
+      </c>
+      <c r="P29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16">
+      <c r="P30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="8:16">
+      <c r="P31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="8:16">
+      <c r="P32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="16:16">
+      <c r="P33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="16:16">
+      <c r="P34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="16:16">
+      <c r="P35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="16:16">
+      <c r="P36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="16:16">
+      <c r="P37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="16:16">
+      <c r="P38">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1447,16 +1807,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1464,84 +1824,117 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="V1">
-        <v>0</v>
-      </c>
-      <c r="W1">
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
         <v>1</v>
       </c>
-      <c r="X1">
+      <c r="AI1">
         <v>2</v>
       </c>
-      <c r="Y1">
+      <c r="AJ1">
         <v>3</v>
       </c>
-      <c r="Z1">
+      <c r="AK1">
         <v>4</v>
       </c>
-      <c r="AA1">
+      <c r="AL1">
         <v>5</v>
       </c>
-      <c r="AB1">
+      <c r="AM1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:40">
       <c r="A2">
-        <f t="shared" ref="A2:L2" si="0">SUM(A3:A30)</f>
+        <f t="shared" ref="A2:W2" si="0">SUM(A3:A30)</f>
         <v>1109</v>
       </c>
       <c r="B2">
@@ -1549,114 +1942,158 @@
         <v>866</v>
       </c>
       <c r="C2">
+        <f>SUM(C3:C50)</f>
+        <v>2901</v>
+      </c>
+      <c r="D2">
         <f t="shared" si="0"/>
         <v>4734</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>386.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>462.6</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N2">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="F2">
+      <c r="O2">
         <f t="shared" si="0"/>
         <v>1113.5</v>
       </c>
-      <c r="G2">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>274.10000000000002</v>
       </c>
-      <c r="H2">
-        <f t="shared" ref="H2" si="1">SUM(H3:H30)</f>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="1">SUM(R3:R30)</f>
         <v>482.46000000000004</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:K2" si="2">SUM(I3:I30)</f>
+      <c r="S2">
+        <f t="shared" ref="S2:T2" si="2">SUM(S3:S30)</f>
         <v>95</v>
       </c>
-      <c r="J2">
+      <c r="T2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K2">
-        <f>SUM(K3:K50)</f>
+      <c r="U2">
+        <f>SUM(U3:U50)</f>
         <v>890.6</v>
       </c>
-      <c r="L2">
+      <c r="V2">
+        <f>SUM(V3:V50)</f>
+        <v>231.4</v>
+      </c>
+      <c r="W2">
         <f t="shared" si="0"/>
         <v>327.7</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:T2" si="3">SUM(M3:M30)</f>
+      <c r="X2">
+        <f t="shared" ref="X2:AE2" si="3">SUM(X3:X30)</f>
         <v>717</v>
       </c>
-      <c r="N2">
+      <c r="Y2">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="O2">
+      <c r="Z2">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="P2">
+      <c r="AA2">
         <f t="shared" si="3"/>
         <v>708.81999999999994</v>
       </c>
-      <c r="Q2">
+      <c r="AB2">
         <f t="shared" si="3"/>
         <v>931</v>
       </c>
-      <c r="R2">
+      <c r="AC2">
         <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="S2">
+      <c r="AD2">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="T2">
+      <c r="AE2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V2">
+      <c r="AG2">
         <f>SUM(A2:B2)</f>
         <v>1975</v>
       </c>
-      <c r="W2">
-        <f>SUM(C2:D2)</f>
-        <v>4871</v>
-      </c>
-      <c r="X2">
-        <f>SUM(E2:G2)</f>
-        <v>1639.6</v>
-      </c>
-      <c r="Y2">
-        <f>SUM(H2:K2)</f>
-        <v>1718.06</v>
-      </c>
-      <c r="Z2">
-        <f>SUM(L2:O2)</f>
+      <c r="AH2">
+        <f>SUM(D2:M2)</f>
+        <v>6463.1</v>
+      </c>
+      <c r="AI2">
+        <f>SUM(N2:Q2)</f>
+        <v>1739.6</v>
+      </c>
+      <c r="AJ2">
+        <f>SUM(R2:V2)</f>
+        <v>1949.46</v>
+      </c>
+      <c r="AK2">
+        <f>SUM(W2:Z2)</f>
         <v>1957.7</v>
       </c>
-      <c r="AA2">
-        <f>SUM(P2:Q2)</f>
+      <c r="AL2">
+        <f>SUM(AA2:AB2)</f>
         <v>1639.82</v>
       </c>
-      <c r="AB2">
-        <f>SUM(R2:T2)</f>
+      <c r="AM2">
+        <f>SUM(AC2:AE2)</f>
         <v>590</v>
       </c>
-      <c r="AC2">
-        <f>SUM(V2:AB2)</f>
-        <v>14391.18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AN2">
+        <f>SUM(AG2:AM2)</f>
+        <v>16314.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>1109</v>
       </c>
@@ -1664,523 +2101,682 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>91</v>
+      </c>
+      <c r="D3">
         <v>480</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>51</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>278</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3">
+        <v>80</v>
+      </c>
+      <c r="N3">
         <v>155</v>
       </c>
-      <c r="F3">
+      <c r="O3">
         <v>870</v>
       </c>
-      <c r="G3">
+      <c r="P3">
         <v>112.01</v>
       </c>
-      <c r="H3">
+      <c r="Q3">
+        <v>37</v>
+      </c>
+      <c r="R3">
         <v>187.36</v>
       </c>
-      <c r="I3">
+      <c r="S3">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
         <v>130</v>
       </c>
-      <c r="L3">
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
         <v>18</v>
       </c>
-      <c r="M3">
+      <c r="X3">
         <v>15</v>
       </c>
-      <c r="N3">
+      <c r="Y3">
         <v>20</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
+      <c r="Z3">
+        <v>10</v>
+      </c>
+      <c r="AA3">
         <v>159</v>
       </c>
-      <c r="Q3">
+      <c r="AB3">
         <v>9</v>
       </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
         <v>25</v>
       </c>
-      <c r="T3">
+      <c r="AE3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:40">
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4">
+        <v>41</v>
+      </c>
+      <c r="D4">
         <v>4254</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>120</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <v>160</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>111</v>
+      </c>
+      <c r="N4">
         <v>24</v>
       </c>
-      <c r="F4">
+      <c r="O4">
         <v>243.5</v>
       </c>
-      <c r="G4">
+      <c r="P4">
         <v>162.09</v>
       </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
         <v>11</v>
       </c>
-      <c r="J4">
+      <c r="T4">
         <v>73</v>
       </c>
-      <c r="K4">
+      <c r="U4">
         <v>18</v>
       </c>
-      <c r="L4">
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
         <v>15</v>
       </c>
-      <c r="M4">
+      <c r="X4">
         <v>50</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
-      <c r="O4">
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
         <v>127</v>
       </c>
-      <c r="P4">
+      <c r="AA4">
         <v>152</v>
       </c>
-      <c r="Q4">
+      <c r="AB4">
         <v>13</v>
       </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:40">
       <c r="B5">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="C5">
+        <v>20.8</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="N5">
         <v>38</v>
       </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
+      <c r="Q5">
+        <v>13</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
         <v>16</v>
       </c>
-      <c r="J5">
+      <c r="T5">
         <v>135</v>
       </c>
-      <c r="K5">
+      <c r="U5">
         <v>40</v>
       </c>
-      <c r="L5">
+      <c r="V5">
+        <v>55</v>
+      </c>
+      <c r="W5">
         <v>17.2</v>
       </c>
-      <c r="M5">
+      <c r="X5">
         <v>26</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AA5">
         <v>150</v>
       </c>
-      <c r="Q5">
+      <c r="AB5">
         <v>9</v>
       </c>
-      <c r="R5">
+      <c r="AC5">
         <v>116</v>
       </c>
-      <c r="S5">
+      <c r="AD5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:40">
       <c r="B6">
         <v>127</v>
       </c>
-      <c r="E6">
+      <c r="C6">
+        <v>12.2</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>130</v>
+      </c>
+      <c r="N6">
         <v>19</v>
       </c>
-      <c r="H6">
+      <c r="Q6">
+        <v>35</v>
+      </c>
+      <c r="R6">
         <v>51</v>
       </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
         <v>13</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>33</v>
       </c>
-      <c r="L6">
+      <c r="V6">
+        <v>23</v>
+      </c>
+      <c r="W6">
         <v>32</v>
       </c>
-      <c r="M6">
+      <c r="X6">
         <v>72</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
         <v>48</v>
       </c>
-      <c r="P6">
+      <c r="AA6">
         <v>154</v>
       </c>
-      <c r="Q6">
+      <c r="AB6">
         <v>132</v>
       </c>
-      <c r="R6">
+      <c r="AC6">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:40">
       <c r="B7">
         <v>20</v>
       </c>
-      <c r="E7">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="N7">
         <v>16</v>
       </c>
-      <c r="H7">
+      <c r="R7">
         <v>51</v>
       </c>
-      <c r="I7">
+      <c r="S7">
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="T7">
         <v>19</v>
       </c>
-      <c r="K7">
+      <c r="U7">
         <v>23</v>
       </c>
-      <c r="L7">
+      <c r="V7">
+        <v>14</v>
+      </c>
+      <c r="W7">
         <v>19</v>
       </c>
-      <c r="M7">
+      <c r="X7">
         <v>71</v>
       </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
         <v>69</v>
       </c>
-      <c r="P7">
+      <c r="AA7">
         <v>93.82</v>
       </c>
-      <c r="Q7">
+      <c r="AB7">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:40">
       <c r="B8">
         <v>150</v>
       </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="R8">
         <v>51</v>
       </c>
-      <c r="I8">
+      <c r="S8">
         <v>13</v>
       </c>
-      <c r="K8">
+      <c r="U8">
         <v>19</v>
       </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
+      <c r="V8">
+        <v>110.4</v>
+      </c>
+      <c r="W8">
+        <v>10</v>
+      </c>
+      <c r="X8">
         <v>129</v>
       </c>
-      <c r="N8">
+      <c r="Y8">
         <v>500</v>
       </c>
-      <c r="O8">
+      <c r="Z8">
         <v>44</v>
       </c>
-      <c r="Q8">
+      <c r="AB8">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:40">
       <c r="B9">
         <v>32</v>
       </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
       <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="R9">
         <v>51</v>
       </c>
-      <c r="I9">
+      <c r="S9">
         <v>13</v>
       </c>
-      <c r="K9">
+      <c r="U9">
         <v>32.4</v>
       </c>
-      <c r="L9">
+      <c r="V9">
         <v>9</v>
       </c>
-      <c r="M9">
+      <c r="W9">
+        <v>9</v>
+      </c>
+      <c r="X9">
         <v>67</v>
       </c>
-      <c r="O9">
+      <c r="Z9">
         <v>45</v>
       </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AB9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
       <c r="B10">
         <v>15</v>
       </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>26.5</v>
+      </c>
       <c r="H10">
+        <v>11.8</v>
+      </c>
+      <c r="R10">
         <v>71.099999999999994</v>
       </c>
-      <c r="I10">
+      <c r="S10">
         <v>9</v>
       </c>
-      <c r="K10">
+      <c r="U10">
         <v>55</v>
       </c>
-      <c r="L10">
+      <c r="V10">
+        <v>10</v>
+      </c>
+      <c r="W10">
         <v>12</v>
       </c>
-      <c r="M10">
+      <c r="X10">
         <v>132</v>
       </c>
-      <c r="Q10">
+      <c r="AB10">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:40">
       <c r="B11">
         <v>142</v>
       </c>
-      <c r="K11">
+      <c r="C11">
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <v>125.8</v>
+      </c>
+      <c r="U11">
         <v>12</v>
       </c>
-      <c r="L11">
+      <c r="W11">
         <v>13</v>
       </c>
-      <c r="M11">
+      <c r="X11">
         <v>135</v>
       </c>
-      <c r="Q11">
+      <c r="AB11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:40">
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="K12">
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="U12">
         <v>22</v>
       </c>
-      <c r="L12">
+      <c r="W12">
         <v>55</v>
       </c>
-      <c r="M12">
+      <c r="X12">
         <v>20</v>
       </c>
-      <c r="Q12">
+      <c r="AB12">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:40">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="K13">
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="U13">
         <v>110</v>
       </c>
-      <c r="L13">
+      <c r="W13">
         <v>9</v>
       </c>
-      <c r="Q13">
+      <c r="AB13">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:40">
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="K14">
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="U14">
         <v>27</v>
       </c>
-      <c r="L14">
+      <c r="W14">
         <v>18</v>
       </c>
-      <c r="Q14">
+      <c r="AB14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:40">
       <c r="B15">
         <v>10</v>
       </c>
-      <c r="K15">
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="U15">
         <v>52</v>
       </c>
-      <c r="L15">
+      <c r="W15">
         <v>11</v>
       </c>
-      <c r="Q15">
+      <c r="AB15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:40">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="K16">
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="U16">
         <v>18</v>
       </c>
-      <c r="L16">
+      <c r="W16">
         <v>75.3</v>
       </c>
-      <c r="Q16">
+      <c r="AB16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:28">
       <c r="B17">
         <v>10</v>
       </c>
-      <c r="K17">
+      <c r="C17">
+        <v>1510</v>
+      </c>
+      <c r="U17">
         <v>19.2</v>
       </c>
-      <c r="L17">
+      <c r="W17">
         <v>14.2</v>
       </c>
-      <c r="Q17">
+      <c r="AB17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:28">
       <c r="B18">
         <v>25</v>
       </c>
-      <c r="K18">
+      <c r="C18">
+        <v>880</v>
+      </c>
+      <c r="U18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:28">
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="K19">
+      <c r="U19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:28">
       <c r="B20">
         <v>25</v>
       </c>
-      <c r="K20">
+      <c r="U20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:28">
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="K21">
+      <c r="U21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:28">
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="K22">
+      <c r="U22">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:28">
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="U23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:28">
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="U24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:28">
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="U25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:28">
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="K26">
+      <c r="U26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:28">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="K27">
+      <c r="U27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:28">
       <c r="B28">
         <v>50</v>
       </c>
-      <c r="K28">
+      <c r="U28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:28">
       <c r="B29">
         <v>20</v>
       </c>
-      <c r="K29">
+      <c r="U29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:28">
       <c r="B30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:28">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2193,16 +2789,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2213,19 +2809,28 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>5120</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:J2" si="0">SUM(B3:B30)</f>
+        <f t="shared" ref="B2:L2" si="0">SUM(B3:B30)</f>
         <v>474</v>
       </c>
       <c r="C2">
@@ -2234,20 +2839,20 @@
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
         <v>5161.92</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <f t="shared" si="0"/>
         <v>5407</v>
       </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="H2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2260,8 +2865,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>800</v>
       </c>
@@ -2272,13 +2885,22 @@
         <v>1214</v>
       </c>
       <c r="D3">
+        <v>135</v>
+      </c>
+      <c r="E3">
+        <v>47</v>
+      </c>
+      <c r="F3">
         <v>479</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>4320</v>
       </c>
@@ -2286,43 +2908,58 @@
         <v>1552</v>
       </c>
       <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="F4">
         <v>558.97</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="C5">
         <v>327.41000000000003</v>
       </c>
       <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>558.95000000000005</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="D6">
+        <v>97</v>
+      </c>
+      <c r="F6">
         <v>559</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>5106</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="D9">
+    <row r="9" spans="1:12">
+      <c r="F9">
         <v>2196</v>
       </c>
     </row>
@@ -2334,305 +2971,443 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>58</v>
       </c>
       <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>472.2</v>
       </c>
       <c r="B2">
-        <f>SUM(B3:B30)</f>
-        <v>0</v>
+        <f>SUM(B3:B50)</f>
+        <v>1981</v>
       </c>
       <c r="C2">
         <f>SUM(C3:C30)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>SUM(D3:D50)</f>
-        <v>457.5</v>
+        <f>SUM(D3:D30)</f>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>SUM(E3:E50)</f>
+        <v>457.5</v>
+      </c>
+      <c r="F2">
+        <f>SUM(F3:F50)</f>
         <v>415.6</v>
-      </c>
-      <c r="F2">
-        <f>SUM(F3:F30)</f>
-        <v>691.53</v>
       </c>
       <c r="G2">
         <f>SUM(G3:G30)</f>
-        <v>0</v>
+        <v>691.53</v>
       </c>
       <c r="H2">
         <f>SUM(H3:H30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <f>SUM(I3:I30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>342.2</v>
       </c>
-      <c r="D3">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>349.83</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>130</v>
       </c>
-      <c r="D4">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="E4">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>341.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="D5">
+      <c r="K4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <f>SUM(A2:B2)</f>
+        <v>2453.1999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>215.5</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="D6">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f>SUM(C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="E6">
         <v>205</v>
       </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="E7">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f>SUM(D2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>SUM(E2:F2)</f>
+        <v>873.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9">
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>SUM(G2)</f>
+        <v>691.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="F9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="E10">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <f>SUM(H2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="E14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="E15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="E16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21">
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>SUM(I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
-      <c r="E22">
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="F22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23">
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24">
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25">
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="F25">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26">
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="F26">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27">
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28">
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>415.5</v>
+      </c>
+      <c r="F28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
-      <c r="E29">
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>415.5</v>
+      </c>
+      <c r="F29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
-      <c r="E30">
+    <row r="30" spans="2:6">
+      <c r="F30">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
-      <c r="E31">
+    <row r="31" spans="2:6">
+      <c r="F31">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="5:5">
-      <c r="E32">
+    <row r="32" spans="2:6">
+      <c r="F32">
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
-      <c r="E33">
+    <row r="33" spans="6:6">
+      <c r="F33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34">
+    <row r="34" spans="6:6">
+      <c r="F34">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -2675,8 +3450,8 @@
         <v>52420</v>
       </c>
       <c r="K2">
-        <f>J2/J10*100</f>
-        <v>25.150043856648395</v>
+        <f>J2/J11*100</f>
+        <v>24.624946376619061</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2684,221 +3459,591 @@
         <v>68</v>
       </c>
       <c r="B3">
-        <f>餐饮!AA3</f>
+        <f>餐饮!AD3</f>
         <v>6409</v>
       </c>
       <c r="C3">
-        <f>餐饮!AA4</f>
-        <v>1068</v>
+        <f>餐饮!AD4</f>
+        <v>1826</v>
       </c>
       <c r="D3">
-        <f>餐饮!AA5</f>
-        <v>898</v>
+        <f>餐饮!AD5</f>
+        <v>2770</v>
       </c>
       <c r="E3">
-        <f>餐饮!AA6</f>
-        <v>5659.12</v>
+        <f>餐饮!AD6</f>
+        <v>6769.12</v>
       </c>
       <c r="F3">
-        <f>餐饮!AA7</f>
+        <f>餐饮!AD7</f>
         <v>4500</v>
       </c>
       <c r="G3">
-        <f>餐饮!AA8</f>
+        <f>餐饮!AD8</f>
         <v>3526.6</v>
       </c>
       <c r="H3">
-        <f>餐饮!AA9</f>
+        <f>餐饮!AD9</f>
         <v>1844</v>
       </c>
       <c r="I3">
         <v>5000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" si="0">SUM(B3:I3)</f>
-        <v>28904.719999999998</v>
+        <f t="shared" ref="J3:J8" si="0">SUM(B3:I3)</f>
+        <v>32644.719999999998</v>
       </c>
       <c r="K3">
-        <f>J3/J10*100</f>
-        <v>13.867893469365548</v>
+        <f>J3/J11*100</f>
+        <v>15.335262866839827</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <f>交通!V2</f>
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <f>交通!W2</f>
-        <v>4871</v>
+        <v>7800</v>
       </c>
       <c r="D4">
-        <f>交通!X2</f>
-        <v>1639.6</v>
+        <v>8800</v>
       </c>
       <c r="E4">
-        <f>交通!Y2</f>
-        <v>1718.06</v>
+        <v>12000</v>
       </c>
       <c r="F4">
-        <f>交通!Z2</f>
-        <v>1957.7</v>
+        <v>4200</v>
       </c>
       <c r="G4">
-        <f>交通!AA2</f>
-        <v>1639.82</v>
+        <v>7200</v>
       </c>
       <c r="H4">
-        <f>交通!AB2</f>
-        <v>590</v>
+        <v>4800</v>
       </c>
       <c r="I4">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>62391.18</v>
+        <f>SUM(B4:I4)</f>
+        <v>44800</v>
       </c>
       <c r="K4">
-        <f>J4/J10*100</f>
-        <v>29.934012080657084</v>
+        <f>J4/J11*100</f>
+        <v>21.045356689670619</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B5">
-        <f>设备!D2+设备!E2</f>
-        <v>10568.92</v>
+        <f>交通!AG2</f>
+        <v>1975</v>
+      </c>
+      <c r="C5">
+        <f>交通!AH2</f>
+        <v>6463.1</v>
+      </c>
+      <c r="D5">
+        <f>交通!AI2</f>
+        <v>1739.6</v>
+      </c>
+      <c r="E5">
+        <f>交通!AJ2</f>
+        <v>1949.46</v>
+      </c>
+      <c r="F5">
+        <f>交通!AK2</f>
+        <v>1957.7</v>
+      </c>
+      <c r="G5">
+        <f>交通!AL2</f>
+        <v>1639.82</v>
+      </c>
+      <c r="H5">
+        <f>交通!AM2</f>
+        <v>590</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>10568.92</v>
+        <v>16314.68</v>
       </c>
       <c r="K5">
-        <f>J5/J10*100</f>
-        <v>5.0707516504656311</v>
+        <f>J5/J11*100</f>
+        <v>7.6640236579873982</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6">
+        <f>设备!F2+设备!G2</f>
+        <v>10568.92</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>10568.92</v>
+      </c>
+      <c r="K6">
+        <f>J6/J11*100</f>
+        <v>4.9648815005489642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
         <f>设备!A2+设备!B2+设备!C2</f>
         <v>8687.41</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>38420</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>47107.41</v>
       </c>
-      <c r="K6">
-        <f>J6/J10*100</f>
-        <v>22.601171832756911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <f>补票!A2</f>
-        <v>472.2</v>
-      </c>
-      <c r="C7">
-        <f>补票!B2</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>补票!C2</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>补票!D2+补票!E2</f>
+      <c r="K7">
+        <f>J7/J11*100</f>
+        <v>22.129291209298142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <f>补票!L4</f>
+        <v>2453.1999999999998</v>
+      </c>
+      <c r="C8">
+        <f>补票!L5</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>补票!L6</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>补票!L7</f>
         <v>873.1</v>
       </c>
-      <c r="F7">
-        <f>补票!F2</f>
+      <c r="F8">
+        <f>补票!L8</f>
         <v>691.53</v>
       </c>
-      <c r="G7">
-        <f>补票!G2</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>补票!H2</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="G8">
+        <f>补票!L9</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>补票!L10</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>5000</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>7036.83</v>
-      </c>
-      <c r="K7">
-        <f>J7/J10*100</f>
-        <v>3.3761271101064314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>9017.83</v>
+      </c>
+      <c r="K8">
+        <f>J8/J11*100</f>
+        <v>4.2362376990359909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <f>SUM(B2:B8)</f>
-        <v>77752.53</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:J10" si="1">SUM(C2:C8)</f>
-        <v>5939</v>
-      </c>
-      <c r="D10">
+      <c r="B11">
+        <f>SUM(B2:B9)</f>
+        <v>79733.53</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:J11" si="1">SUM(C2:C9)</f>
+        <v>16089.1</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="1"/>
-        <v>2537.6</v>
-      </c>
-      <c r="E10">
+        <v>13309.6</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
-        <v>8526.2800000000007</v>
-      </c>
-      <c r="F10">
+        <v>21867.679999999997</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>9653.2300000000014</v>
-      </c>
-      <c r="G10">
+        <v>13853.230000000001</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>5166.42</v>
-      </c>
-      <c r="H10">
+        <v>12366.42</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>2434</v>
-      </c>
-      <c r="I10">
+        <v>7234</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>96420</v>
-      </c>
-      <c r="J10">
+        <v>48420</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>208429.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="J11" s="2"/>
+        <v>212873.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <f>住宿!A2</f>
+        <v>49640</v>
+      </c>
+      <c r="C4">
+        <f>住宿!B2</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>住宿!C2</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>住宿!D2</f>
+        <v>276</v>
+      </c>
+      <c r="F4">
+        <f>住宿!E2</f>
+        <v>2504</v>
+      </c>
+      <c r="G4">
+        <f>住宿!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>住宿!G2</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUM(B4:I4)</f>
+        <v>52420</v>
+      </c>
+      <c r="K4">
+        <f>J4/J12*100</f>
+        <v>24.624946376619061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <f>餐饮!AD3</f>
+        <v>6409</v>
+      </c>
+      <c r="C5">
+        <f>餐饮!AD4</f>
+        <v>1826</v>
+      </c>
+      <c r="D5">
+        <f>餐饮!AD5</f>
+        <v>2770</v>
+      </c>
+      <c r="E5">
+        <f>餐饮!AD6</f>
+        <v>6769.12</v>
+      </c>
+      <c r="F5">
+        <f>餐饮!AD7</f>
+        <v>4500</v>
+      </c>
+      <c r="G5">
+        <f>餐饮!AD8</f>
+        <v>3526.6</v>
+      </c>
+      <c r="H5">
+        <f>餐饮!AD9</f>
+        <v>1844</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J9" si="0">SUM(B5:I5)</f>
+        <v>32644.719999999998</v>
+      </c>
+      <c r="K5">
+        <f>J5/J12*100</f>
+        <v>15.335262866839827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <f>交通!AG2+0</f>
+        <v>1975</v>
+      </c>
+      <c r="C6">
+        <f>交通!AH2+7800</f>
+        <v>14263.1</v>
+      </c>
+      <c r="D6">
+        <f>交通!AI2+8800</f>
+        <v>10539.6</v>
+      </c>
+      <c r="E6">
+        <f>交通!AJ2+12000</f>
+        <v>13949.46</v>
+      </c>
+      <c r="F6">
+        <f>交通!AK2+4200</f>
+        <v>6157.7</v>
+      </c>
+      <c r="G6">
+        <f>交通!AL2+7200</f>
+        <v>8839.82</v>
+      </c>
+      <c r="H6">
+        <f>交通!AM2+4800</f>
+        <v>5390</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>61114.68</v>
+      </c>
+      <c r="K6">
+        <f>J6/J12*100</f>
+        <v>28.709380347658019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <f>设备!F2+设备!G2</f>
+        <v>10568.92</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>10568.92</v>
+      </c>
+      <c r="K7">
+        <f>J7/J12*100</f>
+        <v>4.9648815005489642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <f>设备!A2+设备!B2+设备!C2</f>
+        <v>8687.41</v>
+      </c>
+      <c r="I8">
+        <v>38420</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>47107.41</v>
+      </c>
+      <c r="K8">
+        <f>J8/J12*100</f>
+        <v>22.129291209298142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <f>补票!L4</f>
+        <v>2453.1999999999998</v>
+      </c>
+      <c r="C9">
+        <f>补票!L5</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>补票!L6</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>补票!L7</f>
+        <v>873.1</v>
+      </c>
+      <c r="F9">
+        <f>补票!L8</f>
+        <v>691.53</v>
+      </c>
+      <c r="G9">
+        <f>补票!L9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>补票!L10</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>5000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>9017.83</v>
+      </c>
+      <c r="K9">
+        <f>J9/J12*100</f>
+        <v>4.2362376990359909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B4:B10)</f>
+        <v>79733.53</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
+        <v>16089.1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>13309.6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>21867.679999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>13853.230000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>12366.42</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>7234</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>48420</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>212873.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="J13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="109">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未付款 (预计)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锐成租车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,7 +430,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SG4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未票餐饮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>补票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待分解项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>已交补票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未票（预计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未票 (预计)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,9 +975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -918,7 +996,7 @@
         <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>21</v>
@@ -927,7 +1005,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
         <v>40</v>
@@ -951,7 +1029,7 @@
         <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q1" t="s">
         <v>8</v>
@@ -1809,9 +1887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1824,7 +1902,7 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1833,28 +1911,28 @@
         <v>25</v>
       </c>
       <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
       <c r="K1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>98</v>
-      </c>
-      <c r="M1" t="s">
-        <v>99</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -1866,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R1" t="s">
         <v>44</v>
@@ -1881,7 +1959,7 @@
         <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W1" t="s">
         <v>15</v>
@@ -2793,7 +2871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2809,10 +2887,10 @@
         <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
@@ -2821,7 +2899,10 @@
         <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2855,7 +2936,7 @@
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4078</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
@@ -2897,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2915,6 +2996,9 @@
       </c>
       <c r="G4">
         <v>129</v>
+      </c>
+      <c r="H4">
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2975,7 +3059,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2985,7 +3069,7 @@
         <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
         <v>63</v>
@@ -3081,7 +3165,7 @@
         <v>341.7</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4">
         <f>SUM(A2:B2)</f>
@@ -3373,7 +3457,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3401,7 +3485,7 @@
         <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>56</v>
@@ -3451,7 +3535,7 @@
       </c>
       <c r="K2">
         <f>J2/J11*100</f>
-        <v>24.624946376619061</v>
+        <v>24.117387357262519</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3467,16 +3551,16 @@
         <v>1826</v>
       </c>
       <c r="D3">
-        <f>餐饮!AD5</f>
-        <v>2770</v>
+        <f>餐饮!AD5+3100</f>
+        <v>5870</v>
       </c>
       <c r="E3">
-        <f>餐饮!AD6</f>
-        <v>6769.12</v>
+        <f>餐饮!AD6+670</f>
+        <v>7439.12</v>
       </c>
       <c r="F3">
-        <f>餐饮!AD7</f>
-        <v>4500</v>
+        <f>餐饮!AD7+1632</f>
+        <v>6132</v>
       </c>
       <c r="G3">
         <f>餐饮!AD8</f>
@@ -3491,16 +3575,16 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J8" si="0">SUM(B3:I3)</f>
-        <v>32644.719999999998</v>
+        <v>38046.720000000001</v>
       </c>
       <c r="K3">
         <f>J3/J11*100</f>
-        <v>15.335262866839827</v>
+        <v>17.504530406587314</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3532,12 +3616,12 @@
       </c>
       <c r="K4">
         <f>J4/J11*100</f>
-        <v>21.045356689670619</v>
+        <v>20.611578664734086</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5">
         <f>交通!AG2</f>
@@ -3576,7 +3660,7 @@
       </c>
       <c r="K5">
         <f>J5/J11*100</f>
-        <v>7.6640236579873982</v>
+        <v>7.5060560314724096</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3584,19 +3668,19 @@
         <v>69</v>
       </c>
       <c r="B6">
-        <f>设备!F2+设备!G2</f>
-        <v>10568.92</v>
+        <f>设备!F2+设备!G2+设备!H2</f>
+        <v>14646.92</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>10568.92</v>
+        <v>14646.92</v>
       </c>
       <c r="K6">
         <f>J6/J11*100</f>
-        <v>4.9648815005489642</v>
+        <v>6.7387532092872098</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3616,7 +3700,7 @@
       </c>
       <c r="K7">
         <f>J7/J11*100</f>
-        <v>22.129291209298142</v>
+        <v>21.673171582742885</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3652,15 +3736,15 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>9017.83</v>
+        <v>4017.83</v>
       </c>
       <c r="K8">
         <f>J8/J11*100</f>
-        <v>4.2362376990359909</v>
+        <v>1.848522747913584</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3669,7 +3753,7 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>79733.53</v>
+        <v>83811.53</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:J11" si="1">SUM(C2:C9)</f>
@@ -3677,15 +3761,15 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>13309.6</v>
+        <v>16409.599999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>21867.679999999997</v>
+        <v>22537.679999999997</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>13853.230000000001</v>
+        <v>15485.230000000001</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
@@ -3697,11 +3781,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>48420</v>
+        <v>43420</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>212873.56</v>
+        <v>217353.56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3717,15 +3801,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
@@ -3748,7 +3836,7 @@
         <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>56</v>
@@ -3756,8 +3844,11 @@
       <c r="K1" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3769,7 +3860,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:19">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3781,7 +3872,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -3822,118 +3913,149 @@
       </c>
       <c r="K4">
         <f>J4/J12*100</f>
-        <v>24.624946376619061</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>24.117387357262519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5">
-        <f>餐饮!AD3</f>
-        <v>6409</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>餐饮!AD4</f>
-        <v>1826</v>
+        <f>餐饮!AD4+N5/6</f>
+        <v>3727.5</v>
       </c>
       <c r="D5">
-        <f>餐饮!AD5</f>
-        <v>2770</v>
+        <f>餐饮!AD5+N5/6+3100</f>
+        <v>7771.5</v>
       </c>
       <c r="E5">
-        <f>餐饮!AD6</f>
-        <v>6769.12</v>
+        <f>餐饮!AD6+N5/6+670</f>
+        <v>9340.619999999999</v>
       </c>
       <c r="F5">
-        <f>餐饮!AD7</f>
-        <v>4500</v>
+        <f>餐饮!AD7+N5/6+1632</f>
+        <v>8033.5</v>
       </c>
       <c r="G5">
-        <f>餐饮!AD8</f>
-        <v>3526.6</v>
+        <f>餐饮!AD8+N5/6</f>
+        <v>5428.1</v>
       </c>
       <c r="H5">
-        <f>餐饮!AD9</f>
-        <v>1844</v>
+        <f>餐饮!AD9+N5/6</f>
+        <v>3745.5</v>
       </c>
       <c r="I5">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J9" si="0">SUM(B5:I5)</f>
-        <v>32644.719999999998</v>
+        <f>SUM(B5:I5)</f>
+        <v>38046.720000000001</v>
       </c>
       <c r="K5">
         <f>J5/J12*100</f>
-        <v>15.335262866839827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>17.504530406587314</v>
+      </c>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="1">
+        <f>餐饮!AD3+5000</f>
+        <v>11409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <f>交通!AG2+0</f>
-        <v>1975</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>交通!AH2+7800</f>
-        <v>14263.1</v>
+        <f>交通!AH2+7800+(N6/6)</f>
+        <v>14853.038333333334</v>
       </c>
       <c r="D6">
-        <f>交通!AI2+8800</f>
-        <v>10539.6</v>
+        <f>交通!AI2+8800+N6/6</f>
+        <v>11129.538333333334</v>
       </c>
       <c r="E6">
-        <f>交通!AJ2+12000</f>
-        <v>13949.46</v>
+        <f>交通!AJ2+12000+N6/6</f>
+        <v>14539.398333333333</v>
       </c>
       <c r="F6">
-        <f>交通!AK2+4200</f>
-        <v>6157.7</v>
+        <f>交通!AK2+4200+N6/6</f>
+        <v>6747.6383333333333</v>
       </c>
       <c r="G6">
-        <f>交通!AL2+7200</f>
-        <v>8839.82</v>
+        <f>交通!AL2+7200+N6/6</f>
+        <v>9429.7583333333332</v>
       </c>
       <c r="H6">
-        <f>交通!AM2+4800</f>
-        <v>5390</v>
+        <f>交通!AM2+4800+N6/6</f>
+        <v>5979.9383333333335</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>61114.68</v>
+        <f t="shared" ref="J5:J8" si="0">SUM(B6:I6)</f>
+        <v>62679.31</v>
       </c>
       <c r="K6">
         <f>J6/J12*100</f>
-        <v>28.709380347658019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>28.837489480273522</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N6">
+        <f>交通!AG2+J16</f>
+        <v>3539.63</v>
+      </c>
+      <c r="P6">
+        <v>3728</v>
+      </c>
+      <c r="Q6">
+        <v>14853</v>
+      </c>
+      <c r="S6">
+        <v>52420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B7">
-        <f>设备!F2+设备!G2</f>
-        <v>10568.92</v>
+        <f>设备!F2+设备!G2++设备!H2</f>
+        <v>14646.92</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>补票!L4</f>
+        <v>2453.1999999999998</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>10568.92</v>
+        <v>17100.12</v>
       </c>
       <c r="K7">
         <f>J7/J12*100</f>
-        <v>4.9648815005489642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>7.8674211731337635</v>
+      </c>
+      <c r="P7">
+        <v>7771</v>
+      </c>
+      <c r="Q7">
+        <v>11130</v>
+      </c>
+      <c r="S7">
+        <v>38047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
@@ -3950,97 +4072,145 @@
       </c>
       <c r="K8">
         <f>J8/J12*100</f>
-        <v>22.129291209298142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9">
-        <f>补票!L4</f>
-        <v>2453.1999999999998</v>
-      </c>
-      <c r="C9">
+        <v>21.673171582742885</v>
+      </c>
+      <c r="P8">
+        <v>9341</v>
+      </c>
+      <c r="Q8">
+        <v>14539</v>
+      </c>
+      <c r="S8">
+        <v>62680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="P9">
+        <v>8034</v>
+      </c>
+      <c r="Q9">
+        <v>6748</v>
+      </c>
+      <c r="S9">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="P10">
+        <v>5428</v>
+      </c>
+      <c r="Q10">
+        <v>9430</v>
+      </c>
+      <c r="S10">
+        <v>47107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="P11">
+        <v>3745</v>
+      </c>
+      <c r="Q11">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B4:B10)</f>
+        <v>72974.33</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
+        <v>18580.538333333334</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>18901.038333333334</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>24156.018333333333</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>17285.138333333332</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>14857.858333333334</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>9725.4383333333335</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>40873.199999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>217353.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="P14">
+        <f>SUM(P6:P11)</f>
+        <v>38047</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(Q6:Q11)</f>
+        <v>62680</v>
+      </c>
+      <c r="S14">
+        <f>SUM(S6:S11)</f>
+        <v>217354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <f>补票!L5</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D16">
         <f>补票!L6</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E16">
         <f>补票!L7</f>
         <v>873.1</v>
       </c>
-      <c r="F9">
+      <c r="F16">
         <f>补票!L8</f>
         <v>691.53</v>
       </c>
-      <c r="G9">
+      <c r="G16">
         <f>补票!L9</f>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H16">
         <f>补票!L10</f>
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>5000</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>9017.83</v>
-      </c>
-      <c r="K9">
-        <f>J9/J12*100</f>
-        <v>4.2362376990359909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12">
-        <f>SUM(B4:B10)</f>
-        <v>79733.53</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
-        <v>16089.1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>13309.6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>21867.679999999997</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>13853.230000000001</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>12366.42</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>7234</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>48420</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>212873.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>SUM(B16:I16)</f>
+        <v>1564.63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="住宿" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="汇总" sheetId="6" r:id="rId6"/>
     <sheet name="汇总2" sheetId="7" r:id="rId7"/>
     <sheet name="报表" sheetId="8" r:id="rId8"/>
+    <sheet name="第二次贴票" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +555,142 @@
   </si>
   <si>
     <t>单组合计2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新购设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +1043,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1019,7 +1156,7 @@
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD6" sqref="AD6"/>
+      <selection pane="bottomLeft" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1106,6 +1243,9 @@
       <c r="AA1" t="s">
         <v>31</v>
       </c>
+      <c r="AB1" t="s">
+        <v>121</v>
+      </c>
       <c r="AC1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1224,7 +1364,7 @@
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2" si="10">SUM(AB3:AB30)</f>
-        <v>0</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1309,6 +1449,9 @@
       <c r="AA3">
         <v>470</v>
       </c>
+      <c r="AB3">
+        <v>641</v>
+      </c>
       <c r="AC3">
         <v>0</v>
       </c>
@@ -1670,8 +1813,8 @@
         <v>6</v>
       </c>
       <c r="AD9">
-        <f>SUM(AA2)</f>
-        <v>1844</v>
+        <f>SUM(AA2:AB2)</f>
+        <v>2485</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -1709,7 +1852,7 @@
       </c>
       <c r="AD11">
         <f>SUM(AD3:AD9)</f>
-        <v>27644.719999999998</v>
+        <v>28285.719999999998</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1927,16 +2070,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1947,114 +2090,126 @@
         <v>100</v>
       </c>
       <c r="D1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>92</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>84</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1">
+      <c r="AK1">
         <v>0</v>
       </c>
-      <c r="AH1">
+      <c r="AL1">
         <v>1</v>
       </c>
-      <c r="AI1">
+      <c r="AM1">
         <v>2</v>
       </c>
-      <c r="AJ1">
+      <c r="AN1">
         <v>3</v>
       </c>
-      <c r="AK1">
+      <c r="AO1">
         <v>4</v>
       </c>
-      <c r="AL1">
+      <c r="AP1">
         <v>5</v>
       </c>
-      <c r="AM1">
+      <c r="AQ1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:44">
       <c r="A2">
-        <f t="shared" ref="A2:W2" si="0">SUM(A3:A30)</f>
+        <f t="shared" ref="A2:Z2" si="0">SUM(A3:A30)</f>
         <v>1109</v>
       </c>
       <c r="B2">
@@ -2066,154 +2221,170 @@
         <v>2901</v>
       </c>
       <c r="D2">
+        <f>SUM(D3:D50)</f>
+        <v>2000</v>
+      </c>
+      <c r="E2">
         <f t="shared" si="0"/>
         <v>4734</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f t="shared" si="0"/>
         <v>386.5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f t="shared" si="0"/>
         <v>462.6</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>1113.5</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>274.10000000000002</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R2">
-        <f t="shared" ref="R2" si="1">SUM(R3:R30)</f>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>3367.89</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="1">SUM(T3:T30)</f>
         <v>482.46000000000004</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:T2" si="2">SUM(S3:S30)</f>
+      <c r="U2">
+        <f t="shared" ref="U2:V2" si="2">SUM(U3:U30)</f>
         <v>95</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="U2">
-        <f>SUM(U3:U50)</f>
+      <c r="W2">
+        <f>SUM(W3:W50)</f>
         <v>890.6</v>
       </c>
-      <c r="V2">
-        <f>SUM(V3:V50)</f>
+      <c r="X2">
+        <f>SUM(X3:X50)</f>
         <v>231.4</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <f>SUM(Y3:Y50)</f>
+        <v>279.82</v>
+      </c>
+      <c r="Z2">
         <f t="shared" si="0"/>
         <v>327.7</v>
       </c>
-      <c r="X2">
-        <f t="shared" ref="X2:AE2" si="3">SUM(X3:X30)</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AI2" si="3">SUM(AA3:AA30)</f>
         <v>717</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="AA2">
+      <c r="AD2">
         <f t="shared" si="3"/>
         <v>708.81999999999994</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="3"/>
         <v>931</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="AG2">
         <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AG2">
-        <f>SUM(A2:B2)</f>
-        <v>1975</v>
-      </c>
-      <c r="AH2">
-        <f>SUM(D2:M2)</f>
+      <c r="AK2">
+        <f>SUM(A2:D2)</f>
+        <v>6876</v>
+      </c>
+      <c r="AL2">
+        <f>SUM(E2:N2)</f>
         <v>6463.1</v>
       </c>
-      <c r="AI2">
-        <f>SUM(N2:Q2)</f>
-        <v>1739.6</v>
-      </c>
-      <c r="AJ2">
-        <f>SUM(R2:V2)</f>
-        <v>1949.46</v>
-      </c>
-      <c r="AK2">
-        <f>SUM(W2:Z2)</f>
+      <c r="AM2">
+        <f>SUM(O2:S2)</f>
+        <v>5107.49</v>
+      </c>
+      <c r="AN2">
+        <f>SUM(T2:Y2)</f>
+        <v>2229.2800000000002</v>
+      </c>
+      <c r="AO2">
+        <f>SUM(Z2:AC2)</f>
         <v>1957.7</v>
       </c>
-      <c r="AL2">
-        <f>SUM(AA2:AB2)</f>
-        <v>1639.82</v>
-      </c>
-      <c r="AM2">
-        <f>SUM(AC2:AE2)</f>
+      <c r="AP2">
+        <f>SUM(AD2:AF2)</f>
+        <v>1883.82</v>
+      </c>
+      <c r="AQ2">
+        <f>SUM(AG2:AI2)</f>
         <v>590</v>
       </c>
-      <c r="AN2">
-        <f>SUM(AG2:AM2)</f>
-        <v>16314.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AR2">
+        <f>SUM(AK2:AQ2)</f>
+        <v>25107.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>1109</v>
       </c>
@@ -2224,679 +2395,706 @@
         <v>91</v>
       </c>
       <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
         <v>480</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>112</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>41</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>51</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>278</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>80</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>77</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>80</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>155</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>870</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>112.01</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>37</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1629.06</v>
+      </c>
+      <c r="T3">
         <v>187.36</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>11</v>
       </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3">
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
         <v>130</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>5</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>279.82</v>
+      </c>
+      <c r="Z3">
         <v>18</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>15</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
         <v>20</v>
       </c>
-      <c r="Z3">
-        <v>10</v>
-      </c>
-      <c r="AA3">
+      <c r="AC3">
+        <v>10</v>
+      </c>
+      <c r="AD3">
         <v>159</v>
       </c>
-      <c r="AB3">
+      <c r="AE3">
         <v>9</v>
       </c>
-      <c r="AC3">
-        <v>10</v>
-      </c>
-      <c r="AD3">
+      <c r="AF3">
+        <v>100</v>
+      </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
+      <c r="AH3">
         <v>25</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:44">
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4">
         <v>41</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4254</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>120</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>160</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>92</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>111</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>24</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>243.5</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>162.09</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15</v>
       </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
       <c r="S4">
+        <v>1738.83</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
         <v>11</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>73</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>18</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>15</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>50</v>
       </c>
-      <c r="Y4">
-        <v>10</v>
-      </c>
-      <c r="Z4">
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4">
         <v>127</v>
       </c>
-      <c r="AA4">
+      <c r="AD4">
         <v>152</v>
       </c>
-      <c r="AB4">
+      <c r="AE4">
         <v>13</v>
       </c>
-      <c r="AC4">
-        <v>10</v>
-      </c>
-      <c r="AD4">
+      <c r="AF4">
+        <v>38</v>
+      </c>
+      <c r="AG4">
+        <v>10</v>
+      </c>
+      <c r="AH4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:44">
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5">
         <v>20.8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>38</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>13</v>
       </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
         <v>16</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>135</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>40</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>55</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>17.2</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>26</v>
       </c>
-      <c r="Y5">
-        <v>10</v>
-      </c>
-      <c r="Z5">
-        <v>10</v>
-      </c>
-      <c r="AA5">
+      <c r="AB5">
+        <v>10</v>
+      </c>
+      <c r="AC5">
+        <v>10</v>
+      </c>
+      <c r="AD5">
         <v>150</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>9</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
+        <v>28</v>
+      </c>
+      <c r="AG5">
         <v>116</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:44">
       <c r="B6">
         <v>127</v>
       </c>
       <c r="C6">
         <v>12.2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>28</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>130</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>35</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>51</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
         <v>13</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>33</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>23</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>32</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>72</v>
       </c>
-      <c r="Y6">
-        <v>10</v>
-      </c>
-      <c r="Z6">
+      <c r="AB6">
+        <v>10</v>
+      </c>
+      <c r="AC6">
         <v>48</v>
       </c>
-      <c r="AA6">
+      <c r="AD6">
         <v>154</v>
       </c>
-      <c r="AB6">
+      <c r="AE6">
         <v>132</v>
       </c>
-      <c r="AC6">
+      <c r="AF6">
+        <v>37</v>
+      </c>
+      <c r="AG6">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:44">
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>17</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>16</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>51</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>12</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>19</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>23</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>14</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>19</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>71</v>
       </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
-      <c r="Z7">
+      <c r="AB7">
+        <v>10</v>
+      </c>
+      <c r="AC7">
         <v>69</v>
       </c>
-      <c r="AA7">
+      <c r="AD7">
         <v>93.82</v>
       </c>
-      <c r="AB7">
+      <c r="AE7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:40">
+      <c r="AF7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
       <c r="B8">
         <v>150</v>
       </c>
       <c r="C8">
         <v>39</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>44</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>17</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>51</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>13</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>19</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>110.4</v>
       </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8">
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
         <v>129</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>500</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>44</v>
       </c>
-      <c r="AB8">
+      <c r="AE8">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:44">
       <c r="B9">
         <v>32</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>17</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>51</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>13</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>32.4</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>9</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>9</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>67</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>45</v>
       </c>
-      <c r="AB9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+      <c r="AE9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>26.5</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>11.8</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>71.099999999999994</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>9</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>55</v>
       </c>
-      <c r="V10">
-        <v>10</v>
-      </c>
-      <c r="W10">
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
         <v>12</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>132</v>
       </c>
-      <c r="AB10">
+      <c r="AE10">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:44">
       <c r="B11">
         <v>142</v>
       </c>
       <c r="C11">
         <v>66</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>24</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>125.8</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>12</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>13</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>135</v>
       </c>
-      <c r="AB11">
+      <c r="AE11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:44">
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>22</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>55</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>20</v>
       </c>
-      <c r="AB12">
+      <c r="AE12">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:44">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
         <v>53</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>110</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>9</v>
       </c>
-      <c r="AB13">
+      <c r="AE13">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:44">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
         <v>34</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>27</v>
       </c>
-      <c r="W14">
+      <c r="Z14">
         <v>18</v>
       </c>
-      <c r="AB14">
+      <c r="AE14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:44">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>52</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <v>11</v>
       </c>
-      <c r="AB15">
+      <c r="AE15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:44">
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>18</v>
       </c>
-      <c r="W16">
+      <c r="Z16">
         <v>75.3</v>
       </c>
-      <c r="AB16">
+      <c r="AE16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:31">
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
         <v>1510</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>19.2</v>
       </c>
-      <c r="W17">
+      <c r="Z17">
         <v>14.2</v>
       </c>
-      <c r="AB17">
+      <c r="AE17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:28">
+    <row r="18" spans="2:31">
       <c r="B18">
         <v>25</v>
       </c>
       <c r="C18">
         <v>880</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:28">
+    <row r="19" spans="2:31">
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:28">
+    <row r="20" spans="2:31">
       <c r="B20">
         <v>25</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:28">
+    <row r="21" spans="2:31">
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:28">
+    <row r="22" spans="2:31">
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:28">
+    <row r="23" spans="2:31">
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:31">
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:31">
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:31">
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:31">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:31">
       <c r="B28">
         <v>50</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:31">
       <c r="B29">
         <v>20</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:31">
       <c r="B30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:31">
       <c r="B31">
         <v>1</v>
       </c>
@@ -2909,16 +3107,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2935,25 +3133,31 @@
         <v>95</v>
       </c>
       <c r="F1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>5120</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:L2" si="0">SUM(B3:B30)</f>
+        <f t="shared" ref="B2:N2" si="0">SUM(B3:B30)</f>
         <v>474</v>
       </c>
       <c r="C2">
@@ -2970,34 +3174,42 @@
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>5161.92</v>
+        <v>22220</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>5407</v>
+        <v>16200</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>4078</v>
+        <v>5161.92</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5407</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4078</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>800</v>
       </c>
@@ -3014,16 +3226,32 @@
         <v>47</v>
       </c>
       <c r="F3">
+        <v>9500</v>
+      </c>
+      <c r="G3">
+        <v>9600</v>
+      </c>
+      <c r="H3">
         <v>479</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>3408</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3">
+        <f>SUM(A2:G2)</f>
+        <v>47445.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>4320</v>
       </c>
@@ -3034,16 +3262,29 @@
         <v>14</v>
       </c>
       <c r="F4">
+        <v>8500</v>
+      </c>
+      <c r="G4">
+        <v>6600</v>
+      </c>
+      <c r="H4">
         <v>558.97</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>129</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>670</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="O4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4">
+        <f>SUM(H2:K2)</f>
+        <v>14719.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="C5">
         <v>327.41000000000003</v>
       </c>
@@ -3051,47 +3292,51 @@
         <v>15</v>
       </c>
       <c r="F5">
+        <v>4220</v>
+      </c>
+      <c r="H5">
         <v>558.95000000000005</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="D6">
         <v>97</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>559</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>5106</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16">
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:16">
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="F9">
+    <row r="9" spans="1:16">
+      <c r="H9">
         <v>2196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3101,7 +3346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3499,7 +3744,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3577,7 +3822,7 @@
       </c>
       <c r="K2">
         <f>J2/J11*100</f>
-        <v>24.117387357262519</v>
+        <v>23.072374014362445</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3610,18 +3855,18 @@
       </c>
       <c r="H3">
         <f>餐饮!AD9</f>
-        <v>1844</v>
+        <v>2485</v>
       </c>
       <c r="I3">
         <v>5000</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J8" si="0">SUM(B3:I3)</f>
-        <v>38046.720000000001</v>
+        <v>38687.72</v>
       </c>
       <c r="K3">
         <f>J3/J11*100</f>
-        <v>17.504530406587314</v>
+        <v>17.028186676896802</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3658,7 +3903,7 @@
       </c>
       <c r="K4">
         <f>J4/J11*100</f>
-        <v>20.611578664734086</v>
+        <v>19.71847302257607</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3666,31 +3911,31 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <f>交通!AG2</f>
-        <v>1975</v>
+        <f>交通!AK2</f>
+        <v>6876</v>
       </c>
       <c r="C5">
-        <f>交通!AH2</f>
+        <f>交通!AL2</f>
         <v>6463.1</v>
       </c>
       <c r="D5">
-        <f>交通!AI2</f>
-        <v>1739.6</v>
+        <f>交通!AM2</f>
+        <v>5107.49</v>
       </c>
       <c r="E5">
-        <f>交通!AJ2</f>
-        <v>1949.46</v>
+        <f>交通!AN2</f>
+        <v>2229.2800000000002</v>
       </c>
       <c r="F5">
-        <f>交通!AK2</f>
+        <f>交通!AO2</f>
         <v>1957.7</v>
       </c>
       <c r="G5">
-        <f>交通!AL2</f>
-        <v>1639.82</v>
+        <f>交通!AP2</f>
+        <v>1883.82</v>
       </c>
       <c r="H5">
-        <f>交通!AM2</f>
+        <f>交通!AQ2</f>
         <v>590</v>
       </c>
       <c r="I5">
@@ -3698,11 +3943,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>16314.68</v>
+        <v>25107.39</v>
       </c>
       <c r="K5">
         <f>J5/J11*100</f>
-        <v>7.5060560314724096</v>
+        <v>11.050879294247682</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3710,19 +3955,19 @@
         <v>69</v>
       </c>
       <c r="B6">
-        <f>设备!F2+设备!G2+设备!H2</f>
-        <v>14646.92</v>
+        <f>设备!P4</f>
+        <v>14719.77</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>14646.92</v>
+        <v>14719.77</v>
       </c>
       <c r="K6">
         <f>J6/J11*100</f>
-        <v>6.7387532092872098</v>
+        <v>6.4788256170429586</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3730,19 +3975,19 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <f>设备!A2+设备!B2+设备!C2</f>
-        <v>8687.41</v>
+        <f>设备!P3</f>
+        <v>47445.41</v>
       </c>
       <c r="I7">
-        <v>38420</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>47107.41</v>
+        <v>47445.41</v>
       </c>
       <c r="K7">
         <f>J7/J11*100</f>
-        <v>21.673171582742885</v>
+        <v>20.882835650224575</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3786,7 +4031,7 @@
       </c>
       <c r="K8">
         <f>J8/J11*100</f>
-        <v>1.848522747913584</v>
+        <v>1.7684257246494823</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3795,7 +4040,7 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>83811.53</v>
+        <v>127543.38</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:J11" si="1">SUM(C2:C9)</f>
@@ -3803,11 +4048,11 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>16409.599999999999</v>
+        <v>19777.489999999998</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>22537.679999999997</v>
+        <v>22817.499999999996</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -3815,19 +4060,19 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>12366.42</v>
+        <v>12610.42</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>7234</v>
+        <v>7875</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>43420</v>
+        <v>5000</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>217353.56</v>
+        <v>227198.11999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3845,8 +4090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3956,7 +4201,7 @@
       </c>
       <c r="K4">
         <f>J4/J12*100</f>
-        <v>24.117387357262519</v>
+        <v>23.324220187045832</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3988,18 +4233,18 @@
       </c>
       <c r="H5">
         <f>餐饮!AD9+N5/6</f>
-        <v>3745.5</v>
+        <v>4386.5</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f>SUM(B5:I5)</f>
-        <v>38046.720000000001</v>
+        <v>38687.72</v>
       </c>
       <c r="K5">
         <f>J5/J12*100</f>
-        <v>17.504530406587314</v>
+        <v>17.214057608065183</v>
       </c>
       <c r="M5" t="s">
         <v>103</v>
@@ -4017,46 +4262,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>交通!AH2+7800+(N6/6)</f>
-        <v>14853.038333333334</v>
+        <f>交通!AL2+7800+(N6/6)</f>
+        <v>15669.871666666668</v>
       </c>
       <c r="D6">
-        <f>交通!AI2+8800+N6/6</f>
-        <v>11129.538333333334</v>
+        <f>交通!AM2+8800+N6/6</f>
+        <v>15314.261666666667</v>
       </c>
       <c r="E6">
-        <f>交通!AJ2+12000+N6/6</f>
-        <v>14539.398333333333</v>
+        <f>交通!AN2+12000+N6/6</f>
+        <v>15636.051666666668</v>
       </c>
       <c r="F6">
-        <f>交通!AK2+4200+N6/6</f>
-        <v>6747.6383333333333</v>
+        <f>交通!AO2+4200+N6/6</f>
+        <v>7564.4716666666664</v>
       </c>
       <c r="G6">
-        <f>交通!AL2+7200+N6/6</f>
-        <v>9429.7583333333332</v>
+        <f>交通!AP2+7200+N6/6</f>
+        <v>10490.591666666667</v>
       </c>
       <c r="H6">
-        <f>交通!AM2+4800+N6/6</f>
-        <v>5979.9383333333335</v>
+        <f>交通!AQ2+4800+N6/6</f>
+        <v>6796.7716666666665</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J8" si="0">SUM(B6:I6)</f>
-        <v>62679.31</v>
+        <v>71472.02</v>
       </c>
       <c r="K6">
         <f>J6/J12*100</f>
-        <v>28.837489480273522</v>
+        <v>31.801395110510178</v>
       </c>
       <c r="M6" t="s">
         <v>104</v>
       </c>
       <c r="N6">
-        <f>交通!AG2+J16</f>
-        <v>3539.63</v>
+        <f>交通!AK2+J16</f>
+        <v>8440.630000000001</v>
       </c>
       <c r="P6">
         <v>3728</v>
@@ -4073,20 +4318,16 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <f>设备!F2+设备!G2++设备!H2</f>
-        <v>14646.92</v>
-      </c>
-      <c r="I7">
-        <f>补票!L4</f>
-        <v>2453.1999999999998</v>
+        <f>设备!P4</f>
+        <v>14719.77</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>17100.12</v>
+        <v>14719.77</v>
       </c>
       <c r="K7">
         <f>J7/J12*100</f>
-        <v>7.8674211731337635</v>
+        <v>6.5495451465599324</v>
       </c>
       <c r="P7">
         <v>7771</v>
@@ -4103,19 +4344,16 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <f>设备!A2+设备!B2+设备!C2</f>
-        <v>8687.41</v>
-      </c>
-      <c r="I8">
-        <v>38420</v>
+        <f>设备!P3</f>
+        <v>47445.41</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>47107.41</v>
+        <v>47445.41</v>
       </c>
       <c r="K8">
         <f>J8/J12*100</f>
-        <v>21.673171582742885</v>
+        <v>21.110781947818889</v>
       </c>
       <c r="P8">
         <v>9341</v>
@@ -4163,46 +4401,46 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B10)</f>
-        <v>72974.33</v>
+        <v>111805.18000000001</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
-        <v>18580.538333333334</v>
+        <v>19397.371666666666</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>18901.038333333334</v>
+        <v>23085.761666666665</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>24156.018333333333</v>
+        <v>25252.671666666669</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>17285.138333333332</v>
+        <v>18101.971666666665</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>14857.858333333334</v>
+        <v>15918.691666666668</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>9725.4383333333335</v>
+        <v>11183.271666666667</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>40873.199999999997</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>217353.56</v>
+        <v>224744.91999999998</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="N12">
         <f>I12+B12</f>
-        <v>113847.53</v>
+        <v>111805.18000000001</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4211,31 +4449,31 @@
       </c>
       <c r="C13">
         <f>C12+N12/6</f>
-        <v>37555.126666666663</v>
+        <v>38031.568333333329</v>
       </c>
       <c r="D13">
         <f>D12+N12/6</f>
-        <v>37875.626666666663</v>
+        <v>41719.958333333328</v>
       </c>
       <c r="E13">
         <f>E12+N12/6</f>
-        <v>43130.606666666667</v>
+        <v>43886.868333333332</v>
       </c>
       <c r="F13">
         <f>F12+N12/6</f>
-        <v>36259.726666666669</v>
+        <v>36736.168333333335</v>
       </c>
       <c r="G13">
         <f>G12+N12/6</f>
-        <v>33832.44666666667</v>
+        <v>34552.888333333336</v>
       </c>
       <c r="H13">
         <f>H12+N12/6</f>
-        <v>28700.026666666665</v>
+        <v>29817.468333333334</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(C13:H13)</f>
-        <v>217353.56</v>
+        <v>224744.91999999998</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4302,8 +4540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4581,4 +4819,242 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2">
+        <v>72.849999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4">
+        <v>3367.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17">
+        <v>462.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18">
+        <v>386.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>279.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30">
+        <f>SUM(B2:B27)</f>
+        <v>59987.060000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
+++ b/影视工作/南宁项目财务/锦绣南宁贴好的发票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="住宿" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="汇总2" sheetId="7" r:id="rId7"/>
     <sheet name="报表" sheetId="8" r:id="rId8"/>
     <sheet name="第二次贴票" sheetId="9" r:id="rId9"/>
+    <sheet name="第三次贴票" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="161">
   <si>
     <t>Z01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +692,38 @@
   </si>
   <si>
     <t>J53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,6 +1183,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
+        <v>5771.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4">
+        <v>1946.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5">
+        <v>2126.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>83.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9">
+        <f>SUM(B2:B6)</f>
+        <v>12829.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD38"/>
@@ -2070,16 +2165,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomLeft" activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2093,123 +2188,129 @@
         <v>119</v>
       </c>
       <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>125</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>47</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1">
+      <c r="AM1">
         <v>0</v>
       </c>
-      <c r="AL1">
+      <c r="AN1">
         <v>1</v>
       </c>
-      <c r="AM1">
+      <c r="AO1">
         <v>2</v>
       </c>
-      <c r="AN1">
+      <c r="AP1">
         <v>3</v>
       </c>
-      <c r="AO1">
+      <c r="AQ1">
         <v>4</v>
       </c>
-      <c r="AP1">
+      <c r="AR1">
         <v>5</v>
       </c>
-      <c r="AQ1">
+      <c r="AS1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:46">
       <c r="A2">
-        <f t="shared" ref="A2:Z2" si="0">SUM(A3:A30)</f>
+        <f t="shared" ref="A2:AB2" si="0">SUM(A3:A30)</f>
         <v>1109</v>
       </c>
       <c r="B2">
@@ -2225,166 +2326,174 @@
         <v>2000</v>
       </c>
       <c r="E2">
+        <f>SUM(E3:E50)</f>
+        <v>1946.6499999999999</v>
+      </c>
+      <c r="F2">
         <f t="shared" si="0"/>
         <v>4734</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f t="shared" si="0"/>
         <v>386.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f t="shared" si="0"/>
         <v>462.6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <f t="shared" si="0"/>
         <v>1113.5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <f t="shared" si="0"/>
         <v>274.10000000000002</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <f t="shared" si="0"/>
         <v>3367.89</v>
       </c>
-      <c r="T2">
-        <f t="shared" ref="T2" si="1">SUM(T3:T30)</f>
+      <c r="U2">
+        <f t="shared" ref="U2" si="1">SUM(U3:U30)</f>
         <v>482.46000000000004</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:V2" si="2">SUM(U3:U30)</f>
+      <c r="V2">
+        <f t="shared" ref="V2:W2" si="2">SUM(V3:V30)</f>
         <v>95</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="W2">
-        <f>SUM(W3:W50)</f>
-        <v>890.6</v>
-      </c>
       <c r="X2">
         <f>SUM(X3:X50)</f>
-        <v>231.4</v>
+        <v>890.6</v>
       </c>
       <c r="Y2">
         <f>SUM(Y3:Y50)</f>
+        <v>231.4</v>
+      </c>
+      <c r="Z2">
+        <f>SUM(Z3:Z50)</f>
         <v>279.82</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
+        <f>SUM(AA3:AA50)</f>
+        <v>83.68</v>
+      </c>
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>327.7</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AI2" si="3">SUM(AA3:AA30)</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AK2" si="3">SUM(AC3:AC30)</f>
         <v>717</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <f t="shared" si="3"/>
         <v>353</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <f t="shared" si="3"/>
         <v>708.81999999999994</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <f t="shared" si="3"/>
         <v>931</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <f t="shared" si="3"/>
         <v>265</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AK2">
-        <f>SUM(A2:D2)</f>
-        <v>6876</v>
-      </c>
-      <c r="AL2">
-        <f>SUM(E2:N2)</f>
+      <c r="AM2">
+        <f>SUM(A2:E2)</f>
+        <v>8822.65</v>
+      </c>
+      <c r="AN2">
+        <f>SUM(F2:O2)</f>
         <v>6463.1</v>
       </c>
-      <c r="AM2">
-        <f>SUM(O2:S2)</f>
+      <c r="AO2">
+        <f>SUM(P2:T2)</f>
         <v>5107.49</v>
       </c>
-      <c r="AN2">
-        <f>SUM(T2:Y2)</f>
-        <v>2229.2800000000002</v>
-      </c>
-      <c r="AO2">
-        <f>SUM(Z2:AC2)</f>
+      <c r="AP2">
+        <f>SUM(U2:AA2)</f>
+        <v>2312.96</v>
+      </c>
+      <c r="AQ2">
+        <f>SUM(AB2:AE2)</f>
         <v>1957.7</v>
       </c>
-      <c r="AP2">
-        <f>SUM(AD2:AF2)</f>
+      <c r="AR2">
+        <f>SUM(AF2:AH2)</f>
         <v>1883.82</v>
       </c>
-      <c r="AQ2">
-        <f>SUM(AG2:AI2)</f>
+      <c r="AS2">
+        <f>SUM(AI2:AK2)</f>
         <v>590</v>
       </c>
-      <c r="AR2">
-        <f>SUM(AK2:AQ2)</f>
-        <v>25107.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44">
+      <c r="AT2">
+        <f>SUM(AM2:AS2)</f>
+        <v>27137.719999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3">
         <v>1109</v>
       </c>
@@ -2398,100 +2507,106 @@
         <v>2000</v>
       </c>
       <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
         <v>480</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>112</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>41</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>51</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>278</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>80</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>77</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>80</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>155</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>870</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>112.01</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>37</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1629.06</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>187.36</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>11</v>
       </c>
-      <c r="V3">
-        <v>10</v>
-      </c>
       <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
         <v>130</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>5</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>279.82</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
+        <v>83.68</v>
+      </c>
+      <c r="AB3">
         <v>18</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>15</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>20</v>
       </c>
-      <c r="AC3">
-        <v>10</v>
-      </c>
-      <c r="AD3">
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3">
         <v>159</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>9</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>100</v>
       </c>
-      <c r="AG3">
-        <v>10</v>
-      </c>
-      <c r="AH3">
+      <c r="AI3">
+        <v>10</v>
+      </c>
+      <c r="AJ3">
         <v>25</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:46">
       <c r="B4">
         <v>9</v>
       </c>
@@ -2499,602 +2614,623 @@
         <v>41</v>
       </c>
       <c r="E4">
+        <v>58.56</v>
+      </c>
+      <c r="F4">
         <v>4254</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>120</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>160</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>92</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>111</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>24</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>243.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>162.09</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>15</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1738.83</v>
       </c>
-      <c r="T4">
-        <v>10</v>
-      </c>
       <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
         <v>11</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>73</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>18</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>15</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>50</v>
       </c>
-      <c r="AB4">
-        <v>10</v>
-      </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>10</v>
+      </c>
+      <c r="AE4">
         <v>127</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>152</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>13</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>38</v>
       </c>
-      <c r="AG4">
-        <v>10</v>
-      </c>
-      <c r="AH4">
+      <c r="AI4">
+        <v>10</v>
+      </c>
+      <c r="AJ4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:46">
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5">
         <v>20.8</v>
       </c>
-      <c r="H5">
+      <c r="E5">
+        <v>1427.09</v>
+      </c>
+      <c r="I5">
         <v>27</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>38</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13</v>
       </c>
-      <c r="T5">
-        <v>10</v>
-      </c>
       <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
         <v>16</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>135</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>40</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>55</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>17.2</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>26</v>
       </c>
-      <c r="AB5">
-        <v>10</v>
-      </c>
-      <c r="AC5">
-        <v>10</v>
-      </c>
       <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>10</v>
+      </c>
+      <c r="AF5">
         <v>150</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>9</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>28</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>116</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:46">
       <c r="B6">
         <v>127</v>
       </c>
       <c r="C6">
         <v>12.2</v>
       </c>
-      <c r="H6">
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="I6">
         <v>28</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>130</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>19</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>35</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>51</v>
       </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
       <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
         <v>13</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>33</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>23</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>32</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>72</v>
       </c>
-      <c r="AB6">
-        <v>10</v>
-      </c>
-      <c r="AC6">
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
         <v>48</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>154</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>132</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>37</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:46">
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="I7">
         <v>17</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>16</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>51</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>12</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>19</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>23</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>14</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>19</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>71</v>
       </c>
-      <c r="AB7">
-        <v>10</v>
-      </c>
-      <c r="AC7">
+      <c r="AD7">
+        <v>10</v>
+      </c>
+      <c r="AE7">
         <v>69</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>93.82</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>23</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:46">
       <c r="B8">
         <v>150</v>
       </c>
       <c r="C8">
         <v>39</v>
       </c>
-      <c r="H8">
+      <c r="E8">
+        <v>29</v>
+      </c>
+      <c r="I8">
         <v>44</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>17</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>51</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>13</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>19</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>110.4</v>
       </c>
-      <c r="Z8">
-        <v>10</v>
-      </c>
-      <c r="AA8">
+      <c r="AB8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
         <v>129</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>500</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>44</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:46">
       <c r="B9">
         <v>32</v>
       </c>
       <c r="C9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="I9">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>17</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>51</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>13</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>32.4</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>9</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>9</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>67</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>45</v>
       </c>
-      <c r="AE9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44">
+      <c r="AG9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="B10">
         <v>15</v>
       </c>
       <c r="C10">
         <v>19</v>
       </c>
-      <c r="H10">
+      <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="I10">
         <v>26.5</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>11.8</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>71.099999999999994</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>9</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>55</v>
       </c>
-      <c r="X10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="AB10">
         <v>12</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>132</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:46">
       <c r="B11">
         <v>142</v>
       </c>
       <c r="C11">
         <v>66</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>24</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>125.8</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>12</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>13</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>135</v>
       </c>
-      <c r="AE11">
+      <c r="AG11">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:46">
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>22</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>55</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>20</v>
       </c>
-      <c r="AE12">
+      <c r="AG12">
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:46">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
         <v>53</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>110</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>9</v>
       </c>
-      <c r="AE13">
+      <c r="AG13">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:46">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
         <v>34</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>27</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>18</v>
       </c>
-      <c r="AE14">
+      <c r="AG14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:46">
       <c r="B15">
         <v>10</v>
       </c>
       <c r="C15">
         <v>35</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>52</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>11</v>
       </c>
-      <c r="AE15">
+      <c r="AG15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:46">
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
         <v>20</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>18</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>75.3</v>
       </c>
-      <c r="AE16">
+      <c r="AG16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:33">
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17">
         <v>1510</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>19.2</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>14.2</v>
       </c>
-      <c r="AE17">
+      <c r="AG17">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:33">
       <c r="B18">
         <v>25</v>
       </c>
       <c r="C18">
         <v>880</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:33">
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:33">
       <c r="B20">
         <v>25</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:33">
       <c r="B21">
         <v>10</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:33">
       <c r="B22">
         <v>100</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:31">
+    <row r="23" spans="2:33">
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="2:33">
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:33">
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:31">
+    <row r="26" spans="2:33">
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="2:33">
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:31">
+    <row r="28" spans="2:33">
       <c r="B28">
         <v>50</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="2:33">
       <c r="B29">
         <v>20</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="2:33">
       <c r="B30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="2:33">
       <c r="B31">
         <v>1</v>
       </c>
@@ -3107,16 +3243,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3139,25 +3275,31 @@
         <v>124</v>
       </c>
       <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="M1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <f>SUM(A3:A30)</f>
         <v>5120</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:N2" si="0">SUM(B3:B30)</f>
+        <f t="shared" ref="B2:O2" si="0">SUM(B3:B30)</f>
         <v>474</v>
       </c>
       <c r="C2">
@@ -3182,34 +3324,38 @@
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>5161.92</v>
+        <v>5771.5</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>5407</v>
+        <v>5161.92</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>4078</v>
+        <v>5407</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>72.849999999999994</v>
+        <v>4078</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2126.9</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>800</v>
       </c>
@@ -3232,26 +3378,32 @@
         <v>9600</v>
       </c>
       <c r="H3">
+        <v>1938</v>
+      </c>
+      <c r="I3">
         <v>479</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3408</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>72.849999999999994</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="M3">
+        <v>848.9</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P3">
-        <f>SUM(A2:G2)</f>
-        <v>47445.41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <f>SUM(A2:H2)</f>
+        <v>53216.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>4320</v>
       </c>
@@ -3268,23 +3420,29 @@
         <v>6600</v>
       </c>
       <c r="H4">
+        <v>3833.5</v>
+      </c>
+      <c r="I4">
         <v>558.97</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>129</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>670</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="M4">
+        <v>379</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P4">
-        <f>SUM(H2:K2)</f>
-        <v>14719.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <f>SUM(I2:M2)</f>
+        <v>16846.670000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="C5">
         <v>327.41000000000003</v>
       </c>
@@ -3294,42 +3452,45 @@
       <c r="F5">
         <v>4220</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>558.95000000000005</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="M5">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="D6">
         <v>97</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>559</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5106</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>529</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="H9">
+    <row r="9" spans="1:17">
+      <c r="I9">
         <v>2196</v>
       </c>
     </row>
@@ -3744,7 +3905,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3822,7 +3983,7 @@
       </c>
       <c r="K2">
         <f>J2/J11*100</f>
-        <v>23.072374014362445</v>
+        <v>22.106311453131518</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3866,7 +4027,7 @@
       </c>
       <c r="K3">
         <f>J3/J11*100</f>
-        <v>17.028186676896802</v>
+        <v>16.315200071185529</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3903,7 +4064,7 @@
       </c>
       <c r="K4">
         <f>J4/J11*100</f>
-        <v>19.71847302257607</v>
+        <v>18.892841531863642</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3911,31 +4072,31 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <f>交通!AK2</f>
-        <v>6876</v>
+        <f>交通!AM2</f>
+        <v>8822.65</v>
       </c>
       <c r="C5">
-        <f>交通!AL2</f>
+        <f>交通!AN2</f>
         <v>6463.1</v>
       </c>
       <c r="D5">
-        <f>交通!AM2</f>
+        <f>交通!AO2</f>
         <v>5107.49</v>
       </c>
       <c r="E5">
-        <f>交通!AN2</f>
-        <v>2229.2800000000002</v>
+        <f>交通!AP2</f>
+        <v>2312.96</v>
       </c>
       <c r="F5">
-        <f>交通!AO2</f>
+        <f>交通!AQ2</f>
         <v>1957.7</v>
       </c>
       <c r="G5">
-        <f>交通!AP2</f>
+        <f>交通!AR2</f>
         <v>1883.82</v>
       </c>
       <c r="H5">
-        <f>交通!AQ2</f>
+        <f>交通!AS2</f>
         <v>590</v>
       </c>
       <c r="I5">
@@ -3943,11 +4104,11 @@
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>25107.39</v>
+        <v>27137.719999999998</v>
       </c>
       <c r="K5">
         <f>J5/J11*100</f>
-        <v>11.050879294247682</v>
+        <v>11.444389363751933</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3955,19 +4116,19 @@
         <v>69</v>
       </c>
       <c r="B6">
-        <f>设备!P4</f>
-        <v>14719.77</v>
+        <f>设备!Q4</f>
+        <v>16846.670000000002</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>14719.77</v>
+        <v>16846.670000000002</v>
       </c>
       <c r="K6">
         <f>J6/J11*100</f>
-        <v>6.4788256170429586</v>
+        <v>7.1044970234286007</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3975,19 +4136,19 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <f>设备!P3</f>
-        <v>47445.41</v>
+        <f>设备!Q3</f>
+        <v>53216.91</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>47445.41</v>
+        <v>53216.91</v>
       </c>
       <c r="K7">
         <f>J7/J11*100</f>
-        <v>20.882835650224575</v>
+        <v>22.442380523335927</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4031,7 +4192,7 @@
       </c>
       <c r="K8">
         <f>J8/J11*100</f>
-        <v>1.7684257246494823</v>
+        <v>1.6943800333028503</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4040,7 +4201,7 @@
       </c>
       <c r="B11">
         <f>SUM(B2:B9)</f>
-        <v>127543.38</v>
+        <v>137388.43000000002</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:J11" si="1">SUM(C2:C9)</f>
@@ -4052,7 +4213,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>22817.499999999996</v>
+        <v>22901.179999999997</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -4072,7 +4233,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>227198.11999999997</v>
+        <v>237126.85</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4201,7 +4362,7 @@
       </c>
       <c r="K4">
         <f>J4/J12*100</f>
-        <v>23.324220187045832</v>
+        <v>22.337403453689834</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -4244,7 +4405,7 @@
       </c>
       <c r="K5">
         <f>J5/J12*100</f>
-        <v>17.214057608065183</v>
+        <v>16.485753726504871</v>
       </c>
       <c r="M5" t="s">
         <v>103</v>
@@ -4262,46 +4423,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <f>交通!AL2+7800+(N6/6)</f>
-        <v>15669.871666666668</v>
+        <f>交通!AN2+7800+(N6/6)</f>
+        <v>15994.313333333334</v>
       </c>
       <c r="D6">
-        <f>交通!AM2+8800+N6/6</f>
-        <v>15314.261666666667</v>
+        <f>交通!AO2+8800+N6/6</f>
+        <v>15638.703333333333</v>
       </c>
       <c r="E6">
-        <f>交通!AN2+12000+N6/6</f>
-        <v>15636.051666666668</v>
+        <f>交通!AP2+12000+N6/6</f>
+        <v>16044.173333333332</v>
       </c>
       <c r="F6">
-        <f>交通!AO2+4200+N6/6</f>
-        <v>7564.4716666666664</v>
+        <f>交通!AQ2+4200+N6/6</f>
+        <v>7888.913333333333</v>
       </c>
       <c r="G6">
-        <f>交通!AP2+7200+N6/6</f>
-        <v>10490.591666666667</v>
+        <f>交通!AR2+7200+N6/6</f>
+        <v>10815.033333333333</v>
       </c>
       <c r="H6">
-        <f>交通!AQ2+4800+N6/6</f>
-        <v>6796.7716666666665</v>
+        <f>交通!AS2+4800+N6/6</f>
+        <v>7121.2133333333331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J8" si="0">SUM(B6:I6)</f>
-        <v>71472.02</v>
+        <v>73502.349999999991</v>
       </c>
       <c r="K6">
         <f>J6/J12*100</f>
-        <v>31.801395110510178</v>
+        <v>31.321092078296807</v>
       </c>
       <c r="M6" t="s">
         <v>104</v>
       </c>
       <c r="N6">
-        <f>交通!AK2+J16</f>
-        <v>8440.630000000001</v>
+        <f>交通!AM2+J16</f>
+        <v>10387.279999999999</v>
       </c>
       <c r="P6">
         <v>3728</v>
@@ -4318,16 +4479,16 @@
         <v>69</v>
       </c>
       <c r="B7">
-        <f>设备!P4</f>
-        <v>14719.77</v>
+        <f>设备!Q4</f>
+        <v>16846.670000000002</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>14719.77</v>
+        <v>16846.670000000002</v>
       </c>
       <c r="K7">
         <f>J7/J12*100</f>
-        <v>6.5495451465599324</v>
+        <v>7.1787650637385152</v>
       </c>
       <c r="P7">
         <v>7771</v>
@@ -4344,16 +4505,16 @@
         <v>70</v>
       </c>
       <c r="B8">
-        <f>设备!P3</f>
-        <v>47445.41</v>
+        <f>设备!Q3</f>
+        <v>53216.91</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>47445.41</v>
+        <v>53216.91</v>
       </c>
       <c r="K8">
         <f>J8/J12*100</f>
-        <v>21.110781947818889</v>
+        <v>22.676985677769956</v>
       </c>
       <c r="P8">
         <v>9341</v>
@@ -4401,31 +4562,31 @@
       </c>
       <c r="B12">
         <f>SUM(B4:B10)</f>
-        <v>111805.18000000001</v>
+        <v>119703.58</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:J12" si="1">SUM(C4:C10)</f>
-        <v>19397.371666666666</v>
+        <v>19721.813333333332</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>23085.761666666665</v>
+        <v>23410.203333333331</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>25252.671666666669</v>
+        <v>25660.793333333331</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>18101.971666666665</v>
+        <v>18426.413333333334</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>15918.691666666668</v>
+        <v>16243.133333333333</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>11183.271666666667</v>
+        <v>11507.713333333333</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
@@ -4433,14 +4594,14 @@
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>224744.91999999998</v>
+        <v>234673.65000000002</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="N12">
         <f>I12+B12</f>
-        <v>111805.18000000001</v>
+        <v>119703.58</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4449,31 +4610,31 @@
       </c>
       <c r="C13">
         <f>C12+N12/6</f>
-        <v>38031.568333333329</v>
+        <v>39672.410000000003</v>
       </c>
       <c r="D13">
         <f>D12+N12/6</f>
-        <v>41719.958333333328</v>
+        <v>43360.800000000003</v>
       </c>
       <c r="E13">
         <f>E12+N12/6</f>
-        <v>43886.868333333332</v>
+        <v>45611.39</v>
       </c>
       <c r="F13">
         <f>F12+N12/6</f>
-        <v>36736.168333333335</v>
+        <v>38377.01</v>
       </c>
       <c r="G13">
         <f>G12+N12/6</f>
-        <v>34552.888333333336</v>
+        <v>36193.730000000003</v>
       </c>
       <c r="H13">
         <f>H12+N12/6</f>
-        <v>29817.468333333334</v>
+        <v>31458.31</v>
       </c>
       <c r="J13" s="3">
         <f>SUM(C13:H13)</f>
-        <v>224744.91999999998</v>
+        <v>234673.65000000002</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4823,10 +4984,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4959,7 +5120,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -4967,7 +5128,7 @@
         <v>462.6</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>145</v>
       </c>
@@ -4975,7 +5136,7 @@
         <v>386.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>81</v>
       </c>
@@ -4983,7 +5144,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -4991,7 +5152,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -4999,7 +5160,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -5007,15 +5168,15 @@
         <v>231.4</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5">
+      <c r="D23" t="s">
         <v>148</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <v>16200</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -5023,7 +5184,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -5031,7 +5192,7 @@
         <v>279.82</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -5039,7 +5200,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -5047,10 +5208,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:5">
       <c r="B30">
         <f>SUM(B2:B27)</f>
-        <v>59987.060000000005</v>
+        <v>43787.060000000005</v>
       </c>
     </row>
   </sheetData>
